--- a/examples/sources/data/unsolved/to_schedule/2019-01-16.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Fiscal</t>
   </si>
   <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
+  </si>
+  <si>
     <t>Fecha de Pedido</t>
   </si>
   <si>
@@ -62,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - Dr. Martin Erario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - JUAN CARLOS RUÍZ</t>
   </si>
   <si>
     <t>Garciarena María Florencia (1ra. def.)</t>
@@ -465,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,13 +529,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>100674</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>820</v>
@@ -523,143 +568,218 @@
         <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>823</v>
       </c>
-      <c r="H2" s="2">
-        <v>43481</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43481</v>
+      </c>
+      <c r="P2">
         <v>498</v>
       </c>
-      <c r="J2" s="2">
+      <c r="Q2" s="2">
         <v>43482</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
+        <v>100675</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>818</v>
+      </c>
+      <c r="D3">
+        <v>352</v>
+      </c>
+      <c r="E3">
+        <v>323</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>1072</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
         <v>100676</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
         <v>820</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>671</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>663</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
         <v>647</v>
       </c>
-      <c r="H3" s="2">
-        <v>43481</v>
-      </c>
-      <c r="I3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43481</v>
+      </c>
+      <c r="P4">
         <v>457</v>
       </c>
-      <c r="J3" s="2">
+      <c r="Q4" s="2">
         <v>43482</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
         <v>100677</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>837</v>
-      </c>
-      <c r="D4">
-        <v>436</v>
-      </c>
-      <c r="E4">
-        <v>323</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>621</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>100678</v>
-      </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>837</v>
       </c>
       <c r="D5">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E5">
         <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5">
+        <v>621</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>100678</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>837</v>
+      </c>
+      <c r="D6">
+        <v>445</v>
+      </c>
+      <c r="E6">
+        <v>323</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
         <v>378</v>
       </c>
-      <c r="H5" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
         <v>100679</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>823</v>
-      </c>
-      <c r="D6">
-        <v>353</v>
-      </c>
-      <c r="E6">
-        <v>410</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="G6">
-        <v>450</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>100680</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>823</v>
@@ -668,181 +788,368 @@
         <v>353</v>
       </c>
       <c r="E7">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>388</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>450</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
-        <v>100681</v>
+        <v>100680</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>823</v>
       </c>
       <c r="D8">
+        <v>353</v>
+      </c>
+      <c r="E8">
+        <v>323</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>388</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>100681</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>823</v>
+      </c>
+      <c r="D9">
         <v>349</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>407</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>516</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>100682</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>821</v>
+      </c>
+      <c r="D10">
+        <v>1221</v>
+      </c>
+      <c r="E10">
+        <v>412</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>872</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>100683</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>828</v>
+      </c>
+      <c r="D11">
+        <v>353</v>
+      </c>
+      <c r="E11">
+        <v>360</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>387</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>100683</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>828</v>
+      </c>
+      <c r="D12">
+        <v>353</v>
+      </c>
+      <c r="E12">
+        <v>360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>387</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>100684</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>836</v>
+      </c>
+      <c r="D13">
+        <v>445</v>
+      </c>
+      <c r="E13">
+        <v>323</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>703</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>100685</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="G8">
-        <v>516</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>100682</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>821</v>
-      </c>
-      <c r="D9">
-        <v>1221</v>
-      </c>
-      <c r="E9">
-        <v>412</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>872</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>100683</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>828</v>
-      </c>
-      <c r="D10">
-        <v>353</v>
-      </c>
-      <c r="E10">
-        <v>360</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>387</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>100684</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>836</v>
-      </c>
-      <c r="D11">
-        <v>445</v>
-      </c>
-      <c r="E11">
-        <v>323</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>703</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>100685</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
+      <c r="C14">
         <v>842</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>431</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>396</v>
       </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
         <v>581</v>
       </c>
-      <c r="H12" s="2">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
         <v>100714</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
         <v>818</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>819</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>803</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
         <v>824</v>
       </c>
-      <c r="H13" s="2">
-        <v>43481</v>
-      </c>
-      <c r="I13">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43481</v>
+      </c>
+      <c r="P15">
         <v>498</v>
       </c>
-      <c r="J13" s="2">
+      <c r="Q15" s="2">
         <v>43483</v>
       </c>
-      <c r="K13" t="s">
-        <v>29</v>
+      <c r="R15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
